--- a/result/with_base/124/valence/s27_6.xlsx
+++ b/result/with_base/124/valence/s27_6.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9375</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8425000011920929</v>
+        <v>0.8325892984867096</v>
       </c>
       <c r="C2" t="n">
-        <v>41703.857421875</v>
+        <v>11297.08154296875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8365909077904441</v>
+        <v>0.8160451685681063</v>
       </c>
       <c r="E2" t="n">
-        <v>41703.74573863636</v>
+        <v>11296.59420955882</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8524999916553497</v>
+        <v>0.8459821343421936</v>
       </c>
       <c r="C3" t="n">
-        <v>40922.181640625</v>
+        <v>10997.62451171875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8851136456836354</v>
+        <v>0.8722426470588235</v>
       </c>
       <c r="E3" t="n">
-        <v>40919.40767045454</v>
+        <v>10996.14585248162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.88671875</v>
       </c>
       <c r="C4" t="n">
-        <v>40141.802734375</v>
+        <v>10699.111328125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91909090497277</v>
+        <v>0.9126838235294118</v>
       </c>
       <c r="E4" t="n">
-        <v>40140.73934659091</v>
+        <v>10697.70571001838</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C5" t="n">
-        <v>39375.4296875</v>
+        <v>10406.54736328125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9337499954483726</v>
+        <v>0.9233193292337305</v>
       </c>
       <c r="E5" t="n">
-        <v>39372.5078125</v>
+        <v>10405.41366038603</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C6" t="n">
-        <v>38619.220703125</v>
+        <v>10119.58447265625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9437499967488375</v>
+        <v>0.9363839275696698</v>
       </c>
       <c r="E6" t="n">
-        <v>38616.29119318182</v>
+        <v>10118.33082490809</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C7" t="n">
-        <v>37875.359375</v>
+        <v>9838.654296875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9489772644909945</v>
+        <v>0.9438681707662695</v>
       </c>
       <c r="E7" t="n">
-        <v>37872.37713068182</v>
+        <v>9837.216279871323</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9375</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37141.546875</v>
+        <v>9564.25927734375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9573863690549677</v>
+        <v>0.9499080882352942</v>
       </c>
       <c r="E8" t="n">
-        <v>37140.54438920454</v>
+        <v>9562.876780790441</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36423.908203125</v>
+        <v>9295.2060546875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9560227231545881</v>
+        <v>0.9728203766486224</v>
       </c>
       <c r="E9" t="n">
-        <v>36422.08345170454</v>
+        <v>9294.403205422794</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35716.44921875</v>
+        <v>9033.7099609375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9728409160267223</v>
+        <v>0.9670430667260114</v>
       </c>
       <c r="E10" t="n">
-        <v>35715.56924715909</v>
+        <v>9032.80801930147</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35024.306640625</v>
+        <v>8778.42236328125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9700000015172091</v>
+        <v>0.9716386549613055</v>
       </c>
       <c r="E11" t="n">
-        <v>35022.46981534091</v>
+        <v>8777.326516544117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34343.205078125</v>
+        <v>8528.88134765625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9753409136425365</v>
+        <v>0.9777442216873169</v>
       </c>
       <c r="E12" t="n">
-        <v>34341.52734375</v>
+        <v>8528.03751148897</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.929999977350235</v>
+        <v>0.94140625</v>
       </c>
       <c r="C13" t="n">
-        <v>33674.369140625</v>
+        <v>8285.71875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9836363792419434</v>
+        <v>0.9792542001780342</v>
       </c>
       <c r="E13" t="n">
-        <v>33672.85014204546</v>
+        <v>8285.005342371323</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C14" t="n">
-        <v>33017.880859375</v>
+        <v>8049.063232421875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9852272868156433</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E14" t="n">
-        <v>33016.32421875</v>
+        <v>8048.160960477941</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.929999977350235</v>
+        <v>0.8950892984867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32373.2900390625</v>
+        <v>7818.189697265625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9852272813970392</v>
+        <v>0.9734768902554232</v>
       </c>
       <c r="E15" t="n">
-        <v>32371.67702414773</v>
+        <v>7817.2744140625</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9375</v>
       </c>
       <c r="C16" t="n">
-        <v>31740.705078125</v>
+        <v>7592.810791015625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9864772829142484</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E16" t="n">
-        <v>31738.81605113636</v>
+        <v>7592.124540441177</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9375</v>
+        <v>0.9151785671710968</v>
       </c>
       <c r="C17" t="n">
-        <v>31119.1396484375</v>
+        <v>7373.71142578125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.990340915593234</v>
+        <v>0.9818146018420949</v>
       </c>
       <c r="E17" t="n">
-        <v>31117.52485795454</v>
+        <v>7372.895651424632</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C18" t="n">
-        <v>30509.14453125</v>
+        <v>7160.073486328125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9864772774956443</v>
+        <v>0.9868697489009184</v>
       </c>
       <c r="E18" t="n">
-        <v>30507.91317471591</v>
+        <v>7159.280158547794</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C19" t="n">
-        <v>29911.158203125</v>
+        <v>6952.271240234375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9843093472368577</v>
       </c>
       <c r="E19" t="n">
-        <v>29909.54279119318</v>
+        <v>6951.286362591912</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C20" t="n">
-        <v>29324.0390625</v>
+        <v>6749.280029296875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E20" t="n">
-        <v>29322.30522017046</v>
+        <v>6748.58984375</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C21" t="n">
-        <v>28747.4130859375</v>
+        <v>6552.013671875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E21" t="n">
-        <v>28745.93963068182</v>
+        <v>6551.317813648897</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C22" t="n">
-        <v>28182.4326171875</v>
+        <v>6360.03662109375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E22" t="n">
-        <v>28180.37642045454</v>
+        <v>6359.221564797794</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C23" t="n">
-        <v>27628.0341796875</v>
+        <v>6172.971435546875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9888636469841003</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E23" t="n">
-        <v>27625.39026988636</v>
+        <v>6172.194393382353</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C24" t="n">
-        <v>27082.7177734375</v>
+        <v>5991.05224609375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E24" t="n">
-        <v>27080.66690340909</v>
+        <v>5990.258185891544</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26547.966796875</v>
+        <v>5813.680908203125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E25" t="n">
-        <v>26546.24183238636</v>
+        <v>5813.055606617647</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C26" t="n">
-        <v>26023.4794921875</v>
+        <v>5641.314697265625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9936363697052002</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E26" t="n">
-        <v>26021.73171164773</v>
+        <v>5640.666360294118</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25508.400390625</v>
+        <v>5473.478759765625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E27" t="n">
-        <v>25506.97620738636</v>
+        <v>5472.884650735294</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C28" t="n">
-        <v>25003.392578125</v>
+        <v>5310.1591796875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9915309863931993</v>
       </c>
       <c r="E28" t="n">
-        <v>25001.91459517046</v>
+        <v>5309.64364085478</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24507.5712890625</v>
+        <v>5151.398193359375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E29" t="n">
-        <v>24506.35227272727</v>
+        <v>5150.801786534927</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C30" t="n">
-        <v>24021.0625</v>
+        <v>4996.828369140625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9915309863931993</v>
       </c>
       <c r="E30" t="n">
-        <v>24020.06214488636</v>
+        <v>4996.300982306985</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C31" t="n">
-        <v>23544.3701171875</v>
+        <v>4846.37890625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E31" t="n">
-        <v>23542.94513494318</v>
+        <v>4845.963579963235</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C32" t="n">
-        <v>23076.2578125</v>
+        <v>4700.25634765625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E32" t="n">
-        <v>23074.79740767046</v>
+        <v>4699.761173023897</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C33" t="n">
-        <v>22616.7451171875</v>
+        <v>4558.109375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E33" t="n">
-        <v>22615.49236505682</v>
+        <v>4557.547047334559</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C34" t="n">
-        <v>22166.189453125</v>
+        <v>4419.677734375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E34" t="n">
-        <v>22164.79314630682</v>
+        <v>4419.228889016544</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21724.2314453125</v>
+        <v>4285.228271484375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E35" t="n">
-        <v>21722.58771306818</v>
+        <v>4284.753532858456</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C36" t="n">
-        <v>21289.4755859375</v>
+        <v>4154.4462890625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E36" t="n">
-        <v>21288.57865767046</v>
+        <v>4154.009794347427</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9375</v>
       </c>
       <c r="C37" t="n">
-        <v>20864.1669921875</v>
+        <v>4027.2998046875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E37" t="n">
-        <v>20862.81338778409</v>
+        <v>4026.867302389706</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9079241156578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20446.373046875</v>
+        <v>3903.798706054688</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="E38" t="n">
-        <v>20445.04598721591</v>
+        <v>3903.290311925552</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.93359375</v>
       </c>
       <c r="C39" t="n">
-        <v>20036.4951171875</v>
+        <v>3783.4189453125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9952731097445768</v>
       </c>
       <c r="E39" t="n">
-        <v>20035.20845170454</v>
+        <v>3783.07808191636</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C40" t="n">
-        <v>19634.4541015625</v>
+        <v>3666.852172851562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.981026786215165</v>
       </c>
       <c r="E40" t="n">
-        <v>19633.09446022727</v>
+        <v>3666.313174977022</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C41" t="n">
-        <v>19239.87890625</v>
+        <v>3553.100830078125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9969318183985624</v>
+        <v>0.9925814060603871</v>
       </c>
       <c r="E41" t="n">
-        <v>19238.54989346591</v>
+        <v>3552.727323644302</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C42" t="n">
-        <v>18852.3154296875</v>
+        <v>3442.683471679688</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9900866606656242</v>
       </c>
       <c r="E42" t="n">
-        <v>18851.45259232954</v>
+        <v>3442.382582720588</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C43" t="n">
-        <v>18472.41796875</v>
+        <v>3335.370727539062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9942883393343758</v>
       </c>
       <c r="E43" t="n">
-        <v>18471.67276278409</v>
+        <v>3335.109202665441</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18099.7939453125</v>
+        <v>3231.12451171875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E44" t="n">
-        <v>18099.06321022727</v>
+        <v>3230.861672794118</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C45" t="n">
-        <v>17734.6572265625</v>
+        <v>3129.8623046875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E45" t="n">
-        <v>17733.53941761364</v>
+        <v>3129.573227826287</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17376.01171875</v>
+        <v>3031.394653320312</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E46" t="n">
-        <v>17374.94264914773</v>
+        <v>3031.147805606618</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C47" t="n">
-        <v>17024.1083984375</v>
+        <v>2935.68115234375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9981617647058824</v>
       </c>
       <c r="E47" t="n">
-        <v>17023.12517755682</v>
+        <v>2935.511259191177</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9375</v>
       </c>
       <c r="C48" t="n">
-        <v>16678.8447265625</v>
+        <v>2842.813842773438</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E48" t="n">
-        <v>16677.96644176136</v>
+        <v>2842.625703699448</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C49" t="n">
-        <v>16340.3681640625</v>
+        <v>2752.539794921875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E49" t="n">
-        <v>16339.34579190341</v>
+        <v>2752.389590992647</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C50" t="n">
-        <v>16008.6474609375</v>
+        <v>2664.960327148438</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E50" t="n">
-        <v>16007.16814630682</v>
+        <v>2664.744140625</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,905 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9375</v>
       </c>
       <c r="C51" t="n">
-        <v>15682.54296875</v>
+        <v>2579.8779296875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E51" t="n">
-        <v>15681.27849786932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9174999892711639</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15363.05810546875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15361.59321732955</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15049.70556640625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15047.96004971591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14741.5400390625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14740.32776988636</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9149999916553497</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14439.9140625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14438.564453125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.929999977350235</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14143.36767578125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14142.52175071023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13852.8779296875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13852.14186789773</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13568.1201171875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13567.30459872159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9174999892711639</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13289.0205078125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13287.91139914773</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13014.521484375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9979545474052429</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13013.8505859375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12745.81298828125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12745.02068536932</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9199999868869781</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12482.10595703125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12481.33584872159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9199999868869781</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12223.359375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12222.69557883523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9025000035762787</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11970.1650390625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11969.03888494318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11720.7919921875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11720.26429332386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11476.79833984375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11476.244140625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.8950000107288361</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11238.09033203125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9926136406985197</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11236.93288352273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11002.482421875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9897727370262146</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11002.26926491477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.929999977350235</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10772.359375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10772.0517578125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9225000143051147</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10546.91015625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10546.31081321023</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.925000011920929</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10325.4541015625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10324.92471590909</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10108.44384765625</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10107.83611505682</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9199999868869781</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9895.73291015625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9894.96484375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9686.5625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9686.201349431818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9482.0068359375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9481.478071732954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9281.19091796875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9280.741566051136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9084.27490234375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9083.914506392046</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9124999940395355</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8891.4736328125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8890.919300426136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8701.91796875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8701.691672585228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8516.42822265625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8516.169655539772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8334.66455078125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8334.253462357954</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3968253968253968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4126984126984127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02259887005649718</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02259887005649718</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9523809523809523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.02824858757062147</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9523809523809523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.02824858757062147</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9682539682539683</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9682539682539683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9841269841269841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1355932203389831</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9841269841269841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1355932203389831</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9952470630436733</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.864406779661017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.01587301587301587</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8813559322033898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01587301587301587</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8983050847457628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01587301587301587</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9491525423728814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03174603174603174</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9491525423728814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03174603174603174</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9717514124293786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9717514124293786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9774011299435028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9774011299435028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9830508474576272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9830508474576272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9953815801273428</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>2579.61572265625</v>
       </c>
     </row>
   </sheetData>
